--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2783.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2783.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.169025491976319</v>
+        <v>1.300290942192078</v>
       </c>
       <c r="B1">
-        <v>2.431965286216331</v>
+        <v>1.820895433425903</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.274490833282471</v>
       </c>
       <c r="D1">
-        <v>2.367510708370611</v>
+        <v>3.775489091873169</v>
       </c>
       <c r="E1">
-        <v>1.231728564418856</v>
+        <v>1.186664819717407</v>
       </c>
     </row>
   </sheetData>
